--- a/docs/design/MICROP Bill of Materials.xlsx
+++ b/docs/design/MICROP Bill of Materials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25217"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalia/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lmu0-my.sharepoint.com/personal/igreen1_lion_lmu_edu/Documents/Capstone/Ordering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50AD1A1E-4426-4233-A6EE-87A39D3521D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{70B51F53-2FDF-DB4E-A29D-35E10EE41507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5936B62F-74B6-45D2-9889-8425E96D6A71}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
   <si>
     <t>Supplies</t>
   </si>
@@ -95,67 +96,91 @@
     <t>Asghari</t>
   </si>
   <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Decision Matrix</t>
+  </si>
+  <si>
+    <t>850nm</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/10Gtek-GLC-SX-MMD-GLC-SX-MM-Transceiver-1000Base-SX/dp/B00U77VPX2/ref=sr_1_3?dchild=1&amp;keywords=sfp+1000base-sx&amp;qid=1633822790&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Ethernet to USB-C Converter</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Ethernet-Adapter-atolla-Thunderbolt-Compatible/dp/B09893WP6F/ref=sr_1_1_sspa?crid=2SRNZGRLFBFHW&amp;dchild=1&amp;keywords=ethernet+to+usb+c&amp;qid=1633817668&amp;refinements=p_36%3A-2000&amp;rnid=386442011&amp;sprefix=ethernet+to+usb%2Caps%2C237&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzTVQ5STlRWVVYQkhGJmVuY3J5cHRlZElkPUEwMzI0MjIzMktYNFJGNjUwQU1HTiZlbmNyeXB0ZWRBZElkPUEwODQ0NDM1RDZWQUtROUNTVUJSJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
+  </si>
+  <si>
+    <t>Ethernet Cable</t>
+  </si>
+  <si>
+    <t>3'</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Ethernet-2000Mhz-Internet-Connector-Netword/dp/B098TLR9LH/ref=sr_1_3?dchild=1&amp;keywords=ethernet+cat8&amp;qid=1633818580&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Plano-convex-lens-Dia-Eisco/dp/B071NZLNGS</t>
+  </si>
+  <si>
+    <t>Scanning Motors</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/224345859812?_trkparms=amclksrc%3DITM%26aid%3D1110006%26algo%3DHOMESPLICE.SIM%26ao%3D1%26asc%3D20201210111452%26meid%3D3d0a67d8ce5e4524abb7358d03df2920%26pid%3D101196%26rk%3D1%26rkt%3D3%26sd%3D201997704968%26itm%3D224345859812%26pmt%3D1%26noa%3D0%26pg%3D2047675%26algv%3DSimplAMLv5PairwiseWebWithBBEV2bAndUBSourceDemotionWithUltimatelyBoughtOfCoviewV1&amp;_trksid=p2047675.c101196.m2219&amp;amdata=cksum%3A2243458598123d0a67d8ce5e4524abb7358d03df2920%7Cenc%3AAQAGAAACMLAKOcgikT4bLij%252FxRK%252FtSkTYe4YbCw5%252FPV7Z8Mmdg9sEd47P99%252FeNtclTc8TlLlRQpg%252Fz5m3WZPlqn7qGYCNTgBkJVpnZ5LB76U2zg8tKnTx1i3%252FTr%252FUsvSOEJv67VdWim8io%252BT%252B1e1amr2kZhd0va4DGSvz7Nec9m6l%252BVvJdOgAiuV91HMHOFCnePD9jNvGFjrNCv4ipxM2vKY4sHPbUszl59vbm7tUahn7SB8gK0ER7NrsDulQeec6svEQZ2ls05CmtQT6p8MDbbJ9HjYtHFWCV00i8%252Fp875WnfSDXY4dJ1OyC92xpIkhSKedp4KpwblEA5xIcjoJcaXMu5DJZEUbs33kcrcqrl7Jftvm%252FbDO6JW78t2YdoqlyQiMunPjvoXeZCNCPL0Kmo0JXtOVxcJVSPWrCOjRLL%252F5r61iyKaEVPLgvoTD9rrrBNVuN4XjfhZGhDtb3NyOK%252Fz3GsB%252FmxQw0eU%252FkVwXE3aFAqcxuK6A%252BFl009iIC2s8dzQVLfZ67GjzJOWZa%252BM6odPdDCXsPASH8L5Iy1NcaI8qltTdvxGLGmlMzIP768U0pklPAbgel8zXO22g49d7c2zj8j5qiDpczeHWKLNtS%252Biw7ttJwtto49bmR%252FTTcOnuEFAm9brf61e8Zgk4ZYWz26qsnPz3vbp42Vq64j6Kuj7OMnV9hUHyLzw1l441QfNdUlUuzKQpqhcO%252BknEI%252Fi%252BxNnpOyYGoP27G6uJeMxhd8b%252BUJTUwTPI%7Campid%3APL_CLK%7Cclp%3A2047675</t>
+  </si>
+  <si>
+    <t>Media Converter</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Gigabit-Ethernet-Converter-1000Base-T-1000Mbps/dp/B06XKNNB48/ref=dp_fod_1?pd_rd_i=B06XKNNB48&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Arducam-Camera-Raspberry-Infrared-Sensitive/dp/B07SPRQMCW/ref=dp_fod_1?pd_rd_i=B07SPRQMCW&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Laser (Aiming)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Tactical-Flashligh-Charging-Adjustable-Astronomy/dp/B09DPVN5P3/ref=sr_1_3?dchild=1&amp;keywords=usb+laser&amp;qid=1633824639&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Scanner (new)</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Decision Matrix</t>
-  </si>
-  <si>
-    <t>850nm</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/10Gtek-GLC-SX-MMD-GLC-SX-MM-Transceiver-1000Base-SX/dp/B00U77VPX2/ref=sr_1_3?dchild=1&amp;keywords=sfp+1000base-sx&amp;qid=1633822790&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t>Ethernet to USB-C Converter</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Ethernet-Adapter-atolla-Thunderbolt-Compatible/dp/B09893WP6F/ref=sr_1_1_sspa?crid=2SRNZGRLFBFHW&amp;dchild=1&amp;keywords=ethernet+to+usb+c&amp;qid=1633817668&amp;refinements=p_36%3A-2000&amp;rnid=386442011&amp;sprefix=ethernet+to+usb%2Caps%2C237&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzTVQ5STlRWVVYQkhGJmVuY3J5cHRlZElkPUEwMzI0MjIzMktYNFJGNjUwQU1HTiZlbmNyeXB0ZWRBZElkPUEwODQ0NDM1RDZWQUtROUNTVUJSJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
-  </si>
-  <si>
-    <t>Ethernet Cable</t>
-  </si>
-  <si>
-    <t>3'</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Ethernet-2000Mhz-Internet-Connector-Netword/dp/B098TLR9LH/ref=sr_1_3?dchild=1&amp;keywords=ethernet+cat8&amp;qid=1633818580&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Plano-convex-lens-Dia-Eisco/dp/B071NZLNGS</t>
-  </si>
-  <si>
-    <t>Scanning Motors</t>
-  </si>
-  <si>
-    <t>eBay</t>
-  </si>
-  <si>
-    <t>https://www.ebay.com/itm/224345859812?_trkparms=amclksrc%3DITM%26aid%3D1110006%26algo%3DHOMESPLICE.SIM%26ao%3D1%26asc%3D20201210111452%26meid%3D3d0a67d8ce5e4524abb7358d03df2920%26pid%3D101196%26rk%3D1%26rkt%3D3%26sd%3D201997704968%26itm%3D224345859812%26pmt%3D1%26noa%3D0%26pg%3D2047675%26algv%3DSimplAMLv5PairwiseWebWithBBEV2bAndUBSourceDemotionWithUltimatelyBoughtOfCoviewV1&amp;_trksid=p2047675.c101196.m2219&amp;amdata=cksum%3A2243458598123d0a67d8ce5e4524abb7358d03df2920%7Cenc%3AAQAGAAACMLAKOcgikT4bLij%252FxRK%252FtSkTYe4YbCw5%252FPV7Z8Mmdg9sEd47P99%252FeNtclTc8TlLlRQpg%252Fz5m3WZPlqn7qGYCNTgBkJVpnZ5LB76U2zg8tKnTx1i3%252FTr%252FUsvSOEJv67VdWim8io%252BT%252B1e1amr2kZhd0va4DGSvz7Nec9m6l%252BVvJdOgAiuV91HMHOFCnePD9jNvGFjrNCv4ipxM2vKY4sHPbUszl59vbm7tUahn7SB8gK0ER7NrsDulQeec6svEQZ2ls05CmtQT6p8MDbbJ9HjYtHFWCV00i8%252Fp875WnfSDXY4dJ1OyC92xpIkhSKedp4KpwblEA5xIcjoJcaXMu5DJZEUbs33kcrcqrl7Jftvm%252FbDO6JW78t2YdoqlyQiMunPjvoXeZCNCPL0Kmo0JXtOVxcJVSPWrCOjRLL%252F5r61iyKaEVPLgvoTD9rrrBNVuN4XjfhZGhDtb3NyOK%252Fz3GsB%252FmxQw0eU%252FkVwXE3aFAqcxuK6A%252BFl009iIC2s8dzQVLfZ67GjzJOWZa%252BM6odPdDCXsPASH8L5Iy1NcaI8qltTdvxGLGmlMzIP768U0pklPAbgel8zXO22g49d7c2zj8j5qiDpczeHWKLNtS%252Biw7ttJwtto49bmR%252FTTcOnuEFAm9brf61e8Zgk4ZYWz26qsnPz3vbp42Vq64j6Kuj7OMnV9hUHyLzw1l441QfNdUlUuzKQpqhcO%252BknEI%252Fi%252BxNnpOyYGoP27G6uJeMxhd8b%252BUJTUwTPI%7Campid%3APL_CLK%7Cclp%3A2047675</t>
-  </si>
-  <si>
-    <t>Media Converter</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Gigabit-Ethernet-Converter-1000Base-T-1000Mbps/dp/B06XKNNB48/ref=dp_fod_1?pd_rd_i=B06XKNNB48&amp;psc=1</t>
-  </si>
-  <si>
-    <t>Camera</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Arducam-Camera-Raspberry-Infrared-Sensitive/dp/B07SPRQMCW/ref=dp_fod_1?pd_rd_i=B07SPRQMCW&amp;psc=1</t>
-  </si>
-  <si>
-    <t>Laser (Aiming)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Tactical-Flashligh-Charging-Adjustable-Astronomy/dp/B09DPVN5P3/ref=sr_1_3?dchild=1&amp;keywords=usb+laser&amp;qid=1633824639&amp;sr=8-3</t>
+    <t>https://www.amazon.com/Generic-Galvanometer-Optical-Scanner-Including/dp/B01IZPMUPO/ref=sr_1_1?crid=3TFQS1T10ZLOP&amp;keywords=dj+scanner+galvanometer&amp;qid=1642702252&amp;sprefix=dj+scanner+galvonometer%2Caps%2C112&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>LC/UPC to FC/UPC</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>https://www.fs.com/products/74367.html</t>
+  </si>
+  <si>
+    <t>LC/UPC to FC/APC</t>
+  </si>
+  <si>
+    <t>OEQuest</t>
+  </si>
+  <si>
+    <t>https://www.oequest.com/getproduct/17972/cat/0/page/1</t>
   </si>
   <si>
     <r>
@@ -204,6 +229,9 @@
     </r>
   </si>
   <si>
+    <t>IF WE GET REFUND</t>
+  </si>
+  <si>
     <t>Laser Safety Goggles - Decision Matrix</t>
   </si>
   <si>
@@ -438,7 +466,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -526,8 +554,16 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,8 +600,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -640,12 +682,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -701,20 +769,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -1134,374 +1234,477 @@
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
     </row>
-    <row r="4" spans="1:29" s="31" customFormat="1" ht="18.95">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:29" s="40" customFormat="1" ht="18.95">
+      <c r="A4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="33">
         <v>2</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="34">
         <v>12</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="35">
         <v>26.009999999999998</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="J4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="K4" s="36"/>
+      <c r="L4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28" t="s">
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="39"/>
+    </row>
+    <row r="5" spans="1:29" s="40" customFormat="1" ht="18.95">
+      <c r="A5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="30"/>
-    </row>
-    <row r="5" spans="1:29" s="31" customFormat="1" ht="18.95">
-      <c r="A5" s="24" t="s">
+      <c r="B5" s="33">
+        <v>2</v>
+      </c>
+      <c r="C5" s="34">
+        <v>13.59</v>
+      </c>
+      <c r="D5" s="35">
+        <v>29.46</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="24">
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+    </row>
+    <row r="6" spans="1:29" s="40" customFormat="1" ht="18.95">
+      <c r="A6" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="33">
         <v>2</v>
       </c>
-      <c r="C5" s="25">
-        <v>13.59</v>
-      </c>
-      <c r="D5" s="26">
-        <v>29.46</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27" t="s">
+      <c r="C6" s="34">
+        <v>2.99</v>
+      </c>
+      <c r="D6" s="35">
+        <v>6.48</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G6" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-    </row>
-    <row r="6" spans="1:29" s="31" customFormat="1" ht="18.95">
-      <c r="A6" s="24" t="s">
+      <c r="J6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="24">
+      <c r="K6" s="36"/>
+      <c r="L6" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+    </row>
+    <row r="7" spans="1:29" s="40" customFormat="1" ht="18.95">
+      <c r="A7" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="33">
         <v>2</v>
       </c>
-      <c r="C6" s="25">
-        <v>2.99</v>
-      </c>
-      <c r="D6" s="26">
-        <v>6.48</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27" t="s">
+      <c r="C7" s="34">
+        <v>8.09</v>
+      </c>
+      <c r="D7" s="35">
+        <v>17.54</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G7" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="I7" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-    </row>
-    <row r="7" spans="1:29" s="31" customFormat="1" ht="18.95">
-      <c r="A7" s="24" t="s">
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="24">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="39"/>
+    </row>
+    <row r="8" spans="1:29" s="40" customFormat="1" ht="18.95">
+      <c r="A8" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="33">
         <v>2</v>
       </c>
-      <c r="C7" s="25">
-        <v>8.09</v>
-      </c>
-      <c r="D7" s="26">
-        <v>17.54</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="35" t="s">
+      <c r="C8" s="34">
+        <v>85.03</v>
+      </c>
+      <c r="D8" s="35">
+        <v>186.22</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G8" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="39"/>
+    </row>
+    <row r="9" spans="1:29" s="40" customFormat="1" ht="18.95">
+      <c r="A9" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="33">
+        <v>2</v>
+      </c>
+      <c r="C9" s="34">
+        <v>19.88</v>
+      </c>
+      <c r="D9" s="35">
+        <v>42.54</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="I9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="30"/>
-    </row>
-    <row r="8" spans="1:29" s="31" customFormat="1" ht="18.75">
-      <c r="A8" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="24">
+      <c r="J9" s="36"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="39"/>
+    </row>
+    <row r="10" spans="1:29" s="40" customFormat="1" ht="18.95">
+      <c r="A10" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="33">
         <v>2</v>
       </c>
-      <c r="C8" s="25">
-        <v>85.03</v>
-      </c>
-      <c r="D8" s="26">
-        <v>186.22</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="s">
+      <c r="C10" s="34">
+        <v>12.49</v>
+      </c>
+      <c r="D10" s="35">
+        <v>26.72</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G10" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="30"/>
-    </row>
-    <row r="9" spans="1:29" s="31" customFormat="1" ht="18.95">
-      <c r="A9" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="24">
+      <c r="I10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="39"/>
+    </row>
+    <row r="11" spans="1:29" s="53" customFormat="1" ht="18.95">
+      <c r="A11" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="45">
         <v>2</v>
       </c>
-      <c r="C9" s="25">
-        <v>19.88</v>
-      </c>
-      <c r="D9" s="26">
-        <v>42.54</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="30"/>
-    </row>
-    <row r="10" spans="1:29" s="31" customFormat="1" ht="18.95">
-      <c r="A10" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="24">
-        <v>2</v>
-      </c>
-      <c r="C10" s="25">
-        <v>12.49</v>
-      </c>
-      <c r="D10" s="26">
-        <v>26.72</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="30"/>
-    </row>
-    <row r="11" spans="1:29" s="38" customFormat="1" ht="18.95">
-      <c r="A11" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="24">
-        <v>2</v>
-      </c>
-      <c r="C11" s="25">
+      <c r="C11" s="46">
         <f>35.98/2</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="47">
         <v>39</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="27" t="s">
+      <c r="E11" s="48"/>
+      <c r="F11" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="I11" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="52"/>
+    </row>
+    <row r="12" spans="1:29" s="31" customFormat="1" ht="18.75">
+      <c r="A12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="24">
+        <v>2</v>
+      </c>
+      <c r="C12" s="25">
+        <v>135.99</v>
+      </c>
+      <c r="D12" s="25">
+        <v>135.99</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="31" customFormat="1" ht="18.75">
+      <c r="A13" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="24">
+        <v>1</v>
+      </c>
+      <c r="C13" s="25">
+        <v>5</v>
+      </c>
+      <c r="D13" s="26">
+        <v>5</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="31" customFormat="1" ht="18.75">
+      <c r="A14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="24">
+        <v>2</v>
+      </c>
+      <c r="C14" s="25">
         <v>20</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="37"/>
-    </row>
-    <row r="12" spans="1:29" ht="26.1">
-      <c r="A12" s="39" t="s">
+      <c r="D14" s="26">
+        <v>40</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="20">
-        <f>SUM(D3:D11)</f>
-        <v>373.97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="26.1">
-      <c r="A13" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="20">
-        <f>SUM(D4:D11)</f>
-        <v>373.97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="15.75"/>
+      <c r="H14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="26.1">
+      <c r="A15" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="32">
+        <f>SUM(D3:D14)</f>
+        <v>554.96</v>
+      </c>
+      <c r="D15" s="54">
+        <f>SUM(D3:E14)</f>
+        <v>554.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="26.1">
+      <c r="A16" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="20">
+        <f>SUM(D12:D14)</f>
+        <v>180.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75">
+      <c r="A17" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56">
+        <f>C15-D8</f>
+        <v>368.74</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L4" r:id="rId1" xr:uid="{EEF225AB-3783-42A8-A380-4FD25A3A5733}"/>
@@ -1510,6 +1713,10 @@
     <hyperlink ref="L9" r:id="rId4" xr:uid="{59416BAF-AEFC-45FD-86D3-9A229FD297C4}"/>
     <hyperlink ref="L10" r:id="rId5" xr:uid="{EE68C9CA-2F03-634B-8383-56637D428328}"/>
     <hyperlink ref="L8" r:id="rId6" display="https://www.ebay.com/itm/224345859812?_trkparms=amclksrc%3DITM%26aid%3D1110006%26algo%3DHOMESPLICE.SIM%26ao%3D1%26asc%3D20201210111452%26meid%3D3d0a67d8ce5e4524abb7358d03df2920%26pid%3D101196%26rk%3D1%26rkt%3D3%26sd%3D201997704968%26itm%3D224345859812%26pmt%3D1%26noa%3D0%26pg%3D2047675%26algv%3DSimplAMLv5PairwiseWebWithBBEV2bAndUBSourceDemotionWithUltimatelyBoughtOfCoviewV1&amp;_trksid=p2047675.c101196.m2219&amp;amdata=cksum%3A2243458598123d0a67d8ce5e4524abb7358d03df2920%7Cenc%3AAQAGAAACMLAKOcgikT4bLij%252FxRK%252FtSkTYe4YbCw5%252FPV7Z8Mmdg9sEd47P99%252FeNtclTc8TlLlRQpg%252Fz5m3WZPlqn7qGYCNTgBkJVpnZ5LB76U2zg8tKnTx1i3%252FTr%252FUsvSOEJv67VdWim8io%252BT%252B1e1amr2kZhd0va4DGSvz7Nec9m6l%252BVvJdOgAiuV91HMHOFCnePD9jNvGFjrNCv4ipxM2vKY4sHPbUszl59vbm7tUahn7SB8gK0ER7NrsDulQeec6svEQZ2ls05CmtQT6p8MDbbJ9HjYtHFWCV00i8%252Fp875WnfSDXY4dJ1OyC92xpIkhSKedp4KpwblEA5xIcjoJcaXMu5DJZEUbs33kcrcqrl7Jftvm%252FbDO6JW78t2YdoqlyQiMunPjvoXeZCNCPL0Kmo0JXtOVxcJVSPWrCOjRLL%252F5r61iyKaEVPLgvoTD9rrrBNVuN4XjfhZGhDtb3NyOK%252Fz3GsB%252FmxQw0eU%252FkVwXE3aFAqcxuK6A%252BFl009iIC2s8dzQVLfZ67GjzJOWZa%252BM6odPdDCXsPASH8L5Iy1NcaI8qltTdvxGLGmlMzIP768U0pklPAbgel8zXO22g49d7c2zj8j5qiDpczeHWKLNtS%252Biw7ttJwtto49bmR%252FTTcOnuEFAm9brf61e8Zgk4ZYWz26qsnPz3vbp42Vq64j6Kuj7OMnV9hUHyLzw1l441QfNdUlUuzKQpqhcO%252BknEI%252Fi%252BxNnpOyYGoP27G6uJeMxhd8b%252BUJTUwTPI%7Campid%3APL_CLK%7Cclp%3A2047675" xr:uid="{8EE55421-E52A-4608-9A64-BC3E04A8468F}"/>
+    <hyperlink ref="L11" r:id="rId7" xr:uid="{E7C81558-D1CD-0A40-89B0-ADBA9BB0A67C}"/>
+    <hyperlink ref="L12" r:id="rId8" xr:uid="{97683917-9602-458A-8DB7-03EAAA0D9DAA}"/>
+    <hyperlink ref="L14" r:id="rId9" xr:uid="{CA6C8011-0F24-43B3-B96E-AE050545A5B1}"/>
+    <hyperlink ref="L13" r:id="rId10" xr:uid="{485D002D-A7F5-4B79-AC62-CA6E45E83D69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1534,7 +1741,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.95">
       <c r="A1" s="12" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1551,16 +1758,16 @@
     <row r="3" spans="1:6" ht="18.95">
       <c r="A3" s="3"/>
       <c r="B3" s="13" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F3" s="12"/>
     </row>
@@ -1569,58 +1776,58 @@
         <v>5</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="18.95">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="18.95">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="18.95">
       <c r="A7" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B7" s="14">
         <v>189</v>
@@ -1638,25 +1845,25 @@
     </row>
     <row r="8" spans="1:6" ht="18.95">
       <c r="A8" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="18.95">
       <c r="A9" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B9" s="14">
         <v>2</v>
@@ -1695,13 +1902,13 @@
     </row>
     <row r="13" spans="1:6" ht="18.95">
       <c r="A13" s="12" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -1709,10 +1916,10 @@
     <row r="14" spans="1:6" ht="18.95">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -1720,10 +1927,10 @@
     <row r="15" spans="1:6" ht="18.95">
       <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -1731,10 +1938,10 @@
     <row r="16" spans="1:6" ht="18.95">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -1769,7 +1976,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.95">
       <c r="A1" s="12" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1786,55 +1993,55 @@
     <row r="3" spans="1:5" ht="18.95">
       <c r="A3" s="3"/>
       <c r="B3" s="18" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.95">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.95">
       <c r="A5" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.95">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B6" s="16">
         <v>157</v>
@@ -1851,124 +2058,124 @@
     </row>
     <row r="7" spans="1:5" ht="18.95">
       <c r="A7" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.95">
       <c r="A8" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.95">
       <c r="A9" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.95">
       <c r="A10" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.95">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.95">
       <c r="A12" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.95">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.95">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B14" s="14">
         <v>4</v>
@@ -2002,10 +2209,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -2013,10 +2220,10 @@
     <row r="18" spans="1:5" ht="18.95">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -2024,10 +2231,10 @@
     <row r="19" spans="1:5" ht="18.95">
       <c r="A19" s="12"/>
       <c r="B19" s="12" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -2035,10 +2242,10 @@
     <row r="20" spans="1:5" ht="18.95">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -2201,12 +2408,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2215,14 +2416,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2B5830-44A5-4A11-AE23-4F11B681D675}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{548D3F6F-51C8-43BC-A9DF-C374631E7193}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A4E14A5-08B9-4C43-9A67-C490D2335888}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A4E14A5-08B9-4C43-9A67-C490D2335888}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{548D3F6F-51C8-43BC-A9DF-C374631E7193}"/>
 </file>